--- a/realme/March/Others/Entry_Imei-List_March.xlsx
+++ b/realme/March/Others/Entry_Imei-List_March.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="113">
   <si>
     <t>Retail Name</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>Rimi Telecom</t>
+  </si>
+  <si>
+    <t>Shafi Mobile</t>
+  </si>
+  <si>
+    <t>20a</t>
+  </si>
+  <si>
+    <t>Biswash Telecom</t>
+  </si>
+  <si>
+    <t>SR telecom</t>
   </si>
 </sst>
 </file>
@@ -17177,8 +17189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18233,8 +18245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18264,94 +18276,214 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8685290420012750</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="8">
+        <v>863726050067376</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863726050068291</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863726050072731</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868529042323617</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863726050067657</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>862539044204158</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868529042013333</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863726050067897</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863909053261994</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>868529042116532</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="5">
+        <v>863726050072756</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5">
+        <v>863909053272454</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>868529042242155</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042014158</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4"/>
@@ -19110,6 +19242,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D16">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20004,7 +20139,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20034,106 +20169,242 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>862539044390775</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>863909053271811</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863909053272189</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863909053272298</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868521042012855</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863909053333058</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868529042323393</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>861627041451418</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863909053390074</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863909053272975</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>868529041422352</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868529042058874</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>868529042242775</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5">
+        <v>863909053269872</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5">
+        <v>863909053270037</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5">
+        <v>868529042038850</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>861627041704279</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4"/>
@@ -20880,6 +21151,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/realme/March/Others/Entry_Imei-List_March.xlsx
+++ b/realme/March/Others/Entry_Imei-List_March.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="117">
   <si>
     <t>Retail Name</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>SR telecom</t>
+  </si>
+  <si>
+    <t>Dighi  Telecom</t>
+  </si>
+  <si>
+    <t>Ma Telecom</t>
+  </si>
+  <si>
+    <t>G Store</t>
+  </si>
+  <si>
+    <t>Tuhin Mob OK</t>
   </si>
 </sst>
 </file>
@@ -18245,7 +18257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -21162,8 +21174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21193,88 +21205,184 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>862539044499578</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>863909053272652</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>868529042322999</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863909053272710</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>868529042244672</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8">
+        <v>863909053273171</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>862539044391534</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5">
+        <v>863909053333470</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863909053272850</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>862539044802555</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>862539044399370</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>862539044500415</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="5">
+        <v>863909053272397</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5">
+        <v>863909053272058</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
@@ -22039,6 +22147,9 @@
       <c r="C193" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D15">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22048,7 +22159,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22078,136 +22189,312 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5">
+        <v>863909053333397</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>863909053333173</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863909053333199</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863909053269971</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863909053254890</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>861627041453893</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>868529042345719</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>868529042241298</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>863909053168173</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5">
+        <v>863909053271951</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>862539044281313</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="8">
+        <v>863909053270094</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <v>862539044799397</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5">
+        <v>863909053272876</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>868529042059278</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>862539044799272</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="5">
+        <v>863909053269914</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="5">
+        <v>863909053270177</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5">
+        <v>863909053269930</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5">
+        <v>868529041379230</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <v>868529042047851</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>861627041452416</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4"/>
@@ -22925,6 +23212,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/realme/March/Others/Entry_Imei-List_March.xlsx
+++ b/realme/March/Others/Entry_Imei-List_March.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="1" activeTab="27"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="12" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="117">
   <si>
     <t>Retail Name</t>
   </si>
@@ -21174,7 +21174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -24236,8 +24236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24267,45 +24267,93 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5">
+        <v>863909053333298</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>868529042338516</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5">
+        <v>863909053331730</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5">
+        <v>863909053332878</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5">
+        <v>863909053269476</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5">
+        <v>863909053332936</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5">
+        <v>863909053331292</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
